--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/rakrpe_ruc_dk/Documents/Pandemix/SSI/DeathsAgeDK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakrpe\Documents\PandemiX\GithubRepos\PandemiX\DanskeData\DeathsAgeDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>0-9</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Aldersgruppe</t>
+  </si>
+  <si>
+    <t>27_04_2021</t>
   </si>
 </sst>
 </file>
@@ -450,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="Y1" t="s">
         <v>34</v>
       </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +617,11 @@
       <c r="Y2">
         <v>1</v>
       </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,8 +697,11 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,8 +777,11 @@
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +857,11 @@
       <c r="Y5">
         <v>6</v>
       </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,8 +937,11 @@
       <c r="Y6">
         <v>7</v>
       </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,8 +1017,11 @@
       <c r="Y7">
         <v>59</v>
       </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1097,11 @@
       <c r="Y8">
         <v>205</v>
       </c>
+      <c r="Z8">
+        <v>207</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1150,8 +1177,11 @@
       <c r="Y9">
         <v>647</v>
       </c>
+      <c r="Z9">
+        <v>651</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1257,11 @@
       <c r="Y10">
         <v>984</v>
       </c>
+      <c r="Z10">
+        <v>988</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1304,8 +1337,11 @@
       <c r="Y11">
         <v>554</v>
       </c>
+      <c r="Z11">
+        <v>557</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1398,12 +1434,16 @@
         <v>2432</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:Y12" si="13">SUM(X2:X11)</f>
+        <f t="shared" ref="X12:Z12" si="13">SUM(X2:X11)</f>
         <v>2446</v>
       </c>
       <c r="Y12">
         <f t="shared" si="13"/>
         <v>2463</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="13"/>
+        <v>2479</v>
       </c>
     </row>
   </sheetData>
@@ -1413,6 +1453,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1615,15 +1664,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1631,6 +1671,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1645,14 +1693,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>0-9</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>27_04_2021</t>
+  </si>
+  <si>
+    <t>04_05_2021</t>
   </si>
 </sst>
 </file>
@@ -453,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -540,8 +543,11 @@
       <c r="Z1" t="s">
         <v>36</v>
       </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +626,11 @@
       <c r="Z2">
         <v>1</v>
       </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,8 +709,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -780,8 +792,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -860,8 +875,11 @@
       <c r="Z5">
         <v>7</v>
       </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,8 +958,11 @@
       <c r="Z6">
         <v>8</v>
       </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1020,8 +1041,11 @@
       <c r="Z7">
         <v>60</v>
       </c>
+      <c r="AA7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1100,8 +1124,11 @@
       <c r="Z8">
         <v>207</v>
       </c>
+      <c r="AA8">
+        <v>208</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1207,11 @@
       <c r="Z9">
         <v>651</v>
       </c>
+      <c r="AA9">
+        <v>654</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,8 +1290,11 @@
       <c r="Z10">
         <v>988</v>
       </c>
+      <c r="AA10">
+        <v>991</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1340,8 +1373,11 @@
       <c r="Z11">
         <v>557</v>
       </c>
+      <c r="AA11">
+        <v>560</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1470,7 @@
         <v>2432</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:Z12" si="13">SUM(X2:X11)</f>
+        <f t="shared" ref="X12:AA12" si="13">SUM(X2:X11)</f>
         <v>2446</v>
       </c>
       <c r="Y12">
@@ -1444,6 +1480,10 @@
       <c r="Z12">
         <f t="shared" si="13"/>
         <v>2479</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="13"/>
+        <v>2491</v>
       </c>
     </row>
   </sheetData>
@@ -1453,15 +1493,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1664,6 +1695,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1671,14 +1711,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1693,6 +1725,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>0-9</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>04_05_2021</t>
+  </si>
+  <si>
+    <t>11_05_2021</t>
   </si>
 </sst>
 </file>
@@ -456,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -546,8 +549,11 @@
       <c r="AA1" t="s">
         <v>37</v>
       </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +635,11 @@
       <c r="AA2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,8 +721,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,8 +807,11 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,8 +893,11 @@
       <c r="AA5">
         <v>7</v>
       </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -961,8 +979,11 @@
       <c r="AA6">
         <v>8</v>
       </c>
+      <c r="AB6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,8 +1065,11 @@
       <c r="AA7">
         <v>62</v>
       </c>
+      <c r="AB7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1127,8 +1151,11 @@
       <c r="AA8">
         <v>208</v>
       </c>
+      <c r="AB8">
+        <v>208</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,8 +1237,11 @@
       <c r="AA9">
         <v>654</v>
       </c>
+      <c r="AB9">
+        <v>661</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1293,8 +1323,11 @@
       <c r="AA10">
         <v>991</v>
       </c>
+      <c r="AB10">
+        <v>991</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,8 +1409,11 @@
       <c r="AA11">
         <v>560</v>
       </c>
+      <c r="AB11">
+        <v>561</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1506,7 @@
         <v>2432</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:AA12" si="13">SUM(X2:X11)</f>
+        <f t="shared" ref="X12:AB12" si="13">SUM(X2:X11)</f>
         <v>2446</v>
       </c>
       <c r="Y12">
@@ -1484,6 +1520,10 @@
       <c r="AA12">
         <f t="shared" si="13"/>
         <v>2491</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="13"/>
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
@@ -1493,6 +1533,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1695,15 +1744,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1711,6 +1751,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1725,14 +1773,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>0-9</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>11_05_2021</t>
+  </si>
+  <si>
+    <t>18_05_2021</t>
   </si>
 </sst>
 </file>
@@ -459,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="AB12" sqref="AB12:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -552,8 +555,11 @@
       <c r="AB1" t="s">
         <v>38</v>
       </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +644,11 @@
       <c r="AB2">
         <v>1</v>
       </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -724,8 +733,11 @@
       <c r="AB3">
         <v>0</v>
       </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,8 +822,11 @@
       <c r="AB4">
         <v>0</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,8 +911,11 @@
       <c r="AB5">
         <v>7</v>
       </c>
+      <c r="AC5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -982,8 +1000,11 @@
       <c r="AB6">
         <v>8</v>
       </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1068,8 +1089,11 @@
       <c r="AB7">
         <v>62</v>
       </c>
+      <c r="AC7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,8 +1178,11 @@
       <c r="AB8">
         <v>208</v>
       </c>
+      <c r="AC8">
+        <v>210</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1240,8 +1267,11 @@
       <c r="AB9">
         <v>661</v>
       </c>
+      <c r="AC9">
+        <v>663</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1326,8 +1356,11 @@
       <c r="AB10">
         <v>991</v>
       </c>
+      <c r="AC10">
+        <v>991</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1412,8 +1445,11 @@
       <c r="AB11">
         <v>561</v>
       </c>
+      <c r="AC11">
+        <v>561</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1542,7 @@
         <v>2432</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:AB12" si="13">SUM(X2:X11)</f>
+        <f t="shared" ref="X12:AC12" si="13">SUM(X2:X11)</f>
         <v>2446</v>
       </c>
       <c r="Y12">
@@ -1524,6 +1560,10 @@
       <c r="AB12">
         <f t="shared" si="13"/>
         <v>2499</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="13"/>
+        <v>2503</v>
       </c>
     </row>
   </sheetData>
@@ -1533,15 +1573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1744,6 +1775,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1751,14 +1791,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1773,6 +1805,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>0-9</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>18_05_2021</t>
+  </si>
+  <si>
+    <t>25_05_2021</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12:AC12"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -558,8 +561,11 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +653,11 @@
       <c r="AC2">
         <v>1</v>
       </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,8 +745,11 @@
       <c r="AC3">
         <v>0</v>
       </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -825,8 +837,11 @@
       <c r="AC4">
         <v>0</v>
       </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,8 +929,11 @@
       <c r="AC5">
         <v>7</v>
       </c>
+      <c r="AD5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1021,11 @@
       <c r="AC6">
         <v>8</v>
       </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1092,8 +1113,11 @@
       <c r="AC7">
         <v>62</v>
       </c>
+      <c r="AD7">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1181,8 +1205,11 @@
       <c r="AC8">
         <v>210</v>
       </c>
+      <c r="AD8">
+        <v>210</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,8 +1297,11 @@
       <c r="AC9">
         <v>663</v>
       </c>
+      <c r="AD9">
+        <v>666</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1359,8 +1389,11 @@
       <c r="AC10">
         <v>991</v>
       </c>
+      <c r="AD10">
+        <v>992</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1448,8 +1481,11 @@
       <c r="AC11">
         <v>561</v>
       </c>
+      <c r="AD11">
+        <v>562</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1562,8 +1598,12 @@
         <v>2499</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="13"/>
+        <f>SUM(AC2:AC11)</f>
         <v>2503</v>
+      </c>
+      <c r="AD12">
+        <f>SUM(AD2:AD11)</f>
+        <v>2510</v>
       </c>
     </row>
   </sheetData>
@@ -1573,6 +1613,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1775,15 +1824,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1791,6 +1831,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1805,14 +1853,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>0-9</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>25_05_2021</t>
+  </si>
+  <si>
+    <t>01_06_2021</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -564,8 +567,11 @@
       <c r="AD1" t="s">
         <v>40</v>
       </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +662,11 @@
       <c r="AD2">
         <v>1</v>
       </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,8 +757,11 @@
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -840,8 +852,11 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -932,8 +947,11 @@
       <c r="AD5">
         <v>7</v>
       </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1024,8 +1042,11 @@
       <c r="AD6">
         <v>8</v>
       </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,8 +1137,11 @@
       <c r="AD7">
         <v>64</v>
       </c>
+      <c r="AE7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,8 +1232,11 @@
       <c r="AD8">
         <v>210</v>
       </c>
+      <c r="AE8">
+        <v>211</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1300,8 +1327,11 @@
       <c r="AD9">
         <v>666</v>
       </c>
+      <c r="AE9">
+        <v>670</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1392,8 +1422,11 @@
       <c r="AD10">
         <v>992</v>
       </c>
+      <c r="AE10">
+        <v>992</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,8 +1517,11 @@
       <c r="AD11">
         <v>562</v>
       </c>
+      <c r="AE11">
+        <v>562</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1614,7 @@
         <v>2432</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:AC12" si="13">SUM(X2:X11)</f>
+        <f t="shared" ref="X12:AB12" si="13">SUM(X2:X11)</f>
         <v>2446</v>
       </c>
       <c r="Y12">
@@ -1604,6 +1640,10 @@
       <c r="AD12">
         <f>SUM(AD2:AD11)</f>
         <v>2510</v>
+      </c>
+      <c r="AE12">
+        <f>SUM(AE2:AE11)</f>
+        <v>2516</v>
       </c>
     </row>
   </sheetData>
@@ -1622,6 +1662,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067B0F61001E26E4990655038295DAB15" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee3cdd56ad75a133cec0310dc1ffbdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c985db34-e54d-4323-9c17-343881a3f777" xmlns:ns4="43c47581-a1ab-43e4-9644-f9cb95e620d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dce359d01537b7c93672f0fb6f914998" ns3:_="" ns4:_="">
     <xsd:import namespace="c985db34-e54d-4323-9c17-343881a3f777"/>
@@ -1824,12 +1870,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
   <ds:schemaRefs>
@@ -1839,6 +1879,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c985db34-e54d-4323-9c17-343881a3f777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0378E4-CD70-4312-8DC0-09A17EAA3240}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1855,21 +1912,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c985db34-e54d-4323-9c17-343881a3f777"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>0-9</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>01_06_2021</t>
+  </si>
+  <si>
+    <t>08_06_2021</t>
   </si>
 </sst>
 </file>
@@ -468,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -570,8 +573,11 @@
       <c r="AE1" t="s">
         <v>41</v>
       </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +671,11 @@
       <c r="AE2">
         <v>1</v>
       </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,8 +769,11 @@
       <c r="AE3">
         <v>0</v>
       </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -855,8 +867,11 @@
       <c r="AE4">
         <v>0</v>
       </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -950,8 +965,11 @@
       <c r="AE5">
         <v>7</v>
       </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1045,8 +1063,11 @@
       <c r="AE6">
         <v>8</v>
       </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1140,8 +1161,11 @@
       <c r="AE7">
         <v>65</v>
       </c>
+      <c r="AF7">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1235,8 +1259,11 @@
       <c r="AE8">
         <v>211</v>
       </c>
+      <c r="AF8">
+        <v>211</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1330,8 +1357,11 @@
       <c r="AE9">
         <v>670</v>
       </c>
+      <c r="AF9">
+        <v>672</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1425,8 +1455,11 @@
       <c r="AE10">
         <v>992</v>
       </c>
+      <c r="AF10">
+        <v>992</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1520,8 +1553,11 @@
       <c r="AE11">
         <v>562</v>
       </c>
+      <c r="AF11">
+        <v>563</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1644,6 +1680,10 @@
       <c r="AE12">
         <f>SUM(AE2:AE11)</f>
         <v>2516</v>
+      </c>
+      <c r="AF12">
+        <f>SUM(AF2:AF11)</f>
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -1653,18 +1693,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1871,14 +1911,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1891,6 +1923,14 @@
     <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>0-9</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>08_06_2021</t>
+  </si>
+  <si>
+    <t>15_06_2021</t>
   </si>
 </sst>
 </file>
@@ -471,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -576,8 +579,11 @@
       <c r="AF1" t="s">
         <v>42</v>
       </c>
+      <c r="AG1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +680,11 @@
       <c r="AF2">
         <v>1</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,8 +781,11 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,8 +882,11 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -968,8 +983,11 @@
       <c r="AF5">
         <v>7</v>
       </c>
+      <c r="AG5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,8 +1084,11 @@
       <c r="AF6">
         <v>8</v>
       </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1164,8 +1185,11 @@
       <c r="AF7">
         <v>66</v>
       </c>
+      <c r="AG7">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1262,8 +1286,11 @@
       <c r="AF8">
         <v>211</v>
       </c>
+      <c r="AG8">
+        <v>212</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1360,8 +1387,11 @@
       <c r="AF9">
         <v>672</v>
       </c>
+      <c r="AG9">
+        <v>676</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,8 +1488,11 @@
       <c r="AF10">
         <v>992</v>
       </c>
+      <c r="AG10">
+        <v>992</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,8 +1589,11 @@
       <c r="AF11">
         <v>563</v>
       </c>
+      <c r="AG11">
+        <v>563</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1684,6 +1720,10 @@
       <c r="AF12">
         <f>SUM(AF2:AF11)</f>
         <v>2520</v>
+      </c>
+      <c r="AG12">
+        <f>SUM(AG2:AG11)</f>
+        <v>2527</v>
       </c>
     </row>
   </sheetData>
@@ -1693,18 +1733,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,6 +1951,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1923,14 +1971,6 @@
     <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>0-9</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>15_06_2021</t>
+  </si>
+  <si>
+    <t>22_06_2021</t>
   </si>
 </sst>
 </file>
@@ -474,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -582,8 +585,11 @@
       <c r="AG1" t="s">
         <v>43</v>
       </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +689,11 @@
       <c r="AG2">
         <v>1</v>
       </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -784,8 +793,11 @@
       <c r="AG3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -885,8 +897,11 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -986,8 +1001,11 @@
       <c r="AG5">
         <v>7</v>
       </c>
+      <c r="AH5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1087,8 +1105,11 @@
       <c r="AG6">
         <v>10</v>
       </c>
+      <c r="AH6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1188,8 +1209,11 @@
       <c r="AG7">
         <v>66</v>
       </c>
+      <c r="AH7">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1289,8 +1313,11 @@
       <c r="AG8">
         <v>212</v>
       </c>
+      <c r="AH8">
+        <v>212</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1390,8 +1417,11 @@
       <c r="AG9">
         <v>676</v>
       </c>
+      <c r="AH9">
+        <v>678</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1491,8 +1521,11 @@
       <c r="AG10">
         <v>992</v>
       </c>
+      <c r="AH10">
+        <v>993</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1592,8 +1625,11 @@
       <c r="AG11">
         <v>563</v>
       </c>
+      <c r="AH11">
+        <v>564</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1724,6 +1760,10 @@
       <c r="AG12">
         <f>SUM(AG2:AG11)</f>
         <v>2527</v>
+      </c>
+      <c r="AH12">
+        <f>SUM(AH2:AH11)</f>
+        <v>2531</v>
       </c>
     </row>
   </sheetData>
@@ -1733,18 +1773,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,14 +1991,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1971,6 +2003,14 @@
     <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>0-9</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>22_06_2021</t>
+  </si>
+  <si>
+    <t>29_06_2021</t>
   </si>
 </sst>
 </file>
@@ -477,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -588,8 +591,11 @@
       <c r="AH1" t="s">
         <v>44</v>
       </c>
+      <c r="AI1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +698,11 @@
       <c r="AH2">
         <v>1</v>
       </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -796,8 +805,11 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -900,8 +912,11 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1019,11 @@
       <c r="AH5">
         <v>7</v>
       </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,8 +1126,11 @@
       <c r="AH6">
         <v>10</v>
       </c>
+      <c r="AI6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1233,11 @@
       <c r="AH7">
         <v>66</v>
       </c>
+      <c r="AI7">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,8 +1340,11 @@
       <c r="AH8">
         <v>212</v>
       </c>
+      <c r="AI8">
+        <v>213</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1420,8 +1447,11 @@
       <c r="AH9">
         <v>678</v>
       </c>
+      <c r="AI9">
+        <v>678</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1524,8 +1554,11 @@
       <c r="AH10">
         <v>993</v>
       </c>
+      <c r="AI10">
+        <v>994</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1628,8 +1661,11 @@
       <c r="AH11">
         <v>564</v>
       </c>
+      <c r="AI11">
+        <v>564</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1742,28 +1778,32 @@
         <v>2499</v>
       </c>
       <c r="AC12">
-        <f>SUM(AC2:AC11)</f>
+        <f t="shared" ref="AC12:AI12" si="14">SUM(AC2:AC11)</f>
         <v>2503</v>
       </c>
       <c r="AD12">
-        <f>SUM(AD2:AD11)</f>
+        <f t="shared" si="14"/>
         <v>2510</v>
       </c>
       <c r="AE12">
-        <f>SUM(AE2:AE11)</f>
+        <f t="shared" si="14"/>
         <v>2516</v>
       </c>
       <c r="AF12">
-        <f>SUM(AF2:AF11)</f>
+        <f t="shared" si="14"/>
         <v>2520</v>
       </c>
       <c r="AG12">
-        <f>SUM(AG2:AG11)</f>
+        <f t="shared" si="14"/>
         <v>2527</v>
       </c>
       <c r="AH12">
-        <f>SUM(AH2:AH11)</f>
+        <f t="shared" si="14"/>
         <v>2531</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="14"/>
+        <v>2534</v>
       </c>
     </row>
   </sheetData>
@@ -1773,18 +1813,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1991,6 +2031,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2003,14 +2051,6 @@
     <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DanskeData/DeathsAgeDK/Deaths.xlsx
+++ b/DanskeData/DeathsAgeDK/Deaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>0-9</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>29_06_2021</t>
+  </si>
+  <si>
+    <t>06_07_2021</t>
   </si>
 </sst>
 </file>
@@ -480,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+      <selection activeCell="AI12" sqref="AI12:AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -594,8 +597,11 @@
       <c r="AI1" t="s">
         <v>45</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +707,11 @@
       <c r="AI2">
         <v>1</v>
       </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,8 +817,11 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,8 +927,11 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1037,11 @@
       <c r="AI5">
         <v>7</v>
       </c>
+      <c r="AJ5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1129,8 +1147,11 @@
       <c r="AI6">
         <v>11</v>
       </c>
+      <c r="AJ6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1236,8 +1257,11 @@
       <c r="AI7">
         <v>66</v>
       </c>
+      <c r="AJ7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1343,8 +1367,11 @@
       <c r="AI8">
         <v>213</v>
       </c>
+      <c r="AJ8">
+        <v>213</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1450,8 +1477,11 @@
       <c r="AI9">
         <v>678</v>
       </c>
+      <c r="AJ9">
+        <v>679</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1557,8 +1587,11 @@
       <c r="AI10">
         <v>994</v>
       </c>
+      <c r="AJ10">
+        <v>996</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1664,8 +1697,11 @@
       <c r="AI11">
         <v>564</v>
       </c>
+      <c r="AJ11">
+        <v>564</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1814,7 @@
         <v>2499</v>
       </c>
       <c r="AC12">
-        <f t="shared" ref="AC12:AI12" si="14">SUM(AC2:AC11)</f>
+        <f t="shared" ref="AC12:AJ12" si="14">SUM(AC2:AC11)</f>
         <v>2503</v>
       </c>
       <c r="AD12">
@@ -1804,6 +1840,10 @@
       <c r="AI12">
         <f t="shared" si="14"/>
         <v>2534</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="14"/>
+        <v>2538</v>
       </c>
     </row>
   </sheetData>
@@ -1813,18 +1853,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2031,14 +2071,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8007733-9F63-4FCB-9DA3-2BF1A68AEA11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2051,6 +2083,14 @@
     <ds:schemaRef ds:uri="43c47581-a1ab-43e4-9644-f9cb95e620d1"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAEE481-A366-4836-8CFB-49F219EE660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
